--- a/Disciplinas - Trabalho Estrutura de Dados.xlsx
+++ b/Disciplinas - Trabalho Estrutura de Dados.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="Guia"/>
@@ -844,8 +844,8 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
@@ -915,7 +915,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -935,43 +935,43 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
@@ -985,9 +985,6 @@
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1297,8 +1294,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="24" width="16.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="16" width="16.433571428571426" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="14" width="16.433571428571426" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
@@ -1375,7 +1372,7 @@
   </sheetPr>
   <dimension ref="A1:Z109"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1384,30 +1381,30 @@
     <col min="3" max="3" style="15" width="16.576428571428572" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="15" width="16.576428571428572" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="15" width="16.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="26" max="26" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="25" max="25" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="26" max="26" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="30">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="32.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1491,7 +1488,7 @@
       <c r="Y2" s="7"/>
       <c r="Z2" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="30">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="32.25">
       <c r="A3" s="8" t="s">
         <v>213</v>
       </c>
@@ -1533,7 +1530,7 @@
       <c r="Y3" s="7"/>
       <c r="Z3" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="42">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="45">
       <c r="A4" s="8" t="s">
         <v>215</v>
       </c>
@@ -1575,7 +1572,7 @@
       <c r="Y4" s="7"/>
       <c r="Z4" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="30">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="32.25">
       <c r="A5" s="8" t="s">
         <v>217</v>
       </c>
@@ -1617,7 +1614,7 @@
       <c r="Y5" s="7"/>
       <c r="Z5" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="42">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="45">
       <c r="A6" s="8" t="s">
         <v>182</v>
       </c>
@@ -1659,7 +1656,7 @@
       <c r="Y6" s="7"/>
       <c r="Z6" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="30">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="32.25">
       <c r="A7" s="8" t="s">
         <v>219</v>
       </c>
@@ -1701,7 +1698,7 @@
       <c r="Y7" s="7"/>
       <c r="Z7" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="32.25">
       <c r="A8" s="8" t="s">
         <v>220</v>
       </c>
@@ -1834,7 +1831,7 @@
       <c r="B11" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="6" t="s">
         <v>212</v>
       </c>
       <c r="D11" s="9">
@@ -2044,7 +2041,7 @@
       <c r="B16" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="6" t="s">
         <v>229</v>
       </c>
       <c r="D16" s="9">
@@ -4821,7 +4818,7 @@
   </sheetPr>
   <dimension ref="A1:Z109"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4830,27 +4827,27 @@
     <col min="3" max="3" style="15" width="16.576428571428572" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="14" width="16.576428571428572" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="16" width="16.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="26" max="26" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="25" max="25" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="26" max="26" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="33.75">
@@ -5260,7 +5257,7 @@
       <c r="B11" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="6">
         <v>0</v>
       </c>
       <c r="D11" s="5" t="s">
@@ -5300,7 +5297,7 @@
       <c r="B12" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="6">
         <v>0</v>
       </c>
       <c r="D12" s="5" t="s">
@@ -5460,7 +5457,7 @@
       <c r="B16" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="C16" s="17">
+      <c r="C16" s="6">
         <v>0</v>
       </c>
       <c r="D16" s="5" t="s">
@@ -8130,27 +8127,27 @@
     <col min="3" max="3" style="15" width="16.576428571428572" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="15" width="16.576428571428572" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="15" width="16.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="26" max="26" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="25" max="25" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="26" max="26" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="33.75">
@@ -8496,7 +8493,7 @@
       <c r="B9" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="6" t="s">
         <v>66</v>
       </c>
       <c r="D9" s="9">
@@ -8580,7 +8577,7 @@
       <c r="B11" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="6" t="s">
         <v>71</v>
       </c>
       <c r="D11" s="9">
@@ -8622,7 +8619,7 @@
       <c r="B12" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="6" t="s">
         <v>74</v>
       </c>
       <c r="D12" s="9">
@@ -8664,7 +8661,7 @@
       <c r="B13" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="6" t="s">
         <v>76</v>
       </c>
       <c r="D13" s="9">
@@ -8790,7 +8787,7 @@
       <c r="B16" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="6" t="s">
         <v>98</v>
       </c>
       <c r="D16" s="9">
@@ -8832,7 +8829,7 @@
       <c r="B17" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="6" t="s">
         <v>83</v>
       </c>
       <c r="D17" s="9">
@@ -8874,7 +8871,7 @@
       <c r="B18" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="6" t="s">
         <v>104</v>
       </c>
       <c r="D18" s="9">
@@ -8958,7 +8955,7 @@
       <c r="B20" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="6" t="s">
         <v>109</v>
       </c>
       <c r="D20" s="9">
@@ -9084,7 +9081,7 @@
       <c r="B23" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="6" t="s">
         <v>96</v>
       </c>
       <c r="D23" s="9">
@@ -9126,7 +9123,7 @@
       <c r="B24" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="6" t="s">
         <v>118</v>
       </c>
       <c r="D24" s="9">
@@ -9168,7 +9165,7 @@
       <c r="B25" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="C25" s="17" t="s">
+      <c r="C25" s="6" t="s">
         <v>121</v>
       </c>
       <c r="D25" s="9">
@@ -9546,7 +9543,7 @@
       <c r="B34" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="C34" s="17" t="s">
+      <c r="C34" s="6" t="s">
         <v>141</v>
       </c>
       <c r="D34" s="9">
@@ -9672,7 +9669,7 @@
       <c r="B37" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="C37" s="17" t="s">
+      <c r="C37" s="6" t="s">
         <v>131</v>
       </c>
       <c r="D37" s="9">
@@ -10302,7 +10299,7 @@
       <c r="B52" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="C52" s="17" t="s">
+      <c r="C52" s="6" t="s">
         <v>133</v>
       </c>
       <c r="D52" s="9">
@@ -11968,27 +11965,27 @@
     <col min="3" max="3" style="15" width="16.576428571428572" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="14" width="16.576428571428572" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="16" width="16.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="26" max="26" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="25" max="25" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="26" max="26" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="33.75">
